--- a/excel/taikhoan.xlsx
+++ b/excel/taikhoan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>MaNV</t>
   </si>
@@ -32,16 +32,16 @@
     <t>admin</t>
   </si>
   <si>
+    <t>Quản lý kho</t>
+  </si>
+  <si>
     <t>Hoạt động</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>quanly</t>
-  </si>
-  <si>
-    <t>Quản lý kho</t>
+    <t>hgbaodev</t>
   </si>
   <si>
     <t>3</t>
@@ -77,13 +77,31 @@
     <t>6</t>
   </si>
   <si>
-    <t>truong</t>
+    <t>sau</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>baprang</t>
+    <t>chinhngu</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>chinhngunguoi</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>chinh ngu nhu mot con cho</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>muoimot</t>
   </si>
 </sst>
 </file>
@@ -128,14 +146,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="6.640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.3359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.98828125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="16.67578125" customWidth="true" bestFit="true"/>
   </cols>
@@ -162,24 +180,24 @@
         <v>5</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -193,7 +211,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -232,10 +250,10 @@
         <v>21</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -246,10 +264,52 @@
         <v>23</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
